--- a/tests/Feature/config/child_realistic.xlsx
+++ b/tests/Feature/config/child_realistic.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>private</t>
   </si>
@@ -100,6 +100,9 @@
     <t>% Økning</t>
   </si>
   <si>
+    <t>Formue innskutt</t>
+  </si>
+  <si>
     <t>Formue skattbar</t>
   </si>
   <si>
@@ -145,123 +148,99 @@
     <t>Income and expences related to children</t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
-Using current value: 3000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">BarnetrygdUsing current amount: 3000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 37800 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 37800 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 39690 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 39690 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 41675 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 41675 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 43758 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 43758 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 45946 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 45946 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
-Using previous value: 48243 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">BarnetrygdUsing previous amount: 48243 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 50656 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 50656 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 53188 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 53188 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 55848 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 55848 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 58640 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 58640 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 61572 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 61572 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 64651 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 64651 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 67883 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 67883 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 71278 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 71278 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 74841 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 74841 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 78583 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 78583 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
-Using previous value: 82513 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">BarnetrygdUsing previous amount: 82513 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 86638 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 86638 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 90970 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 90970 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 95519 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 95519 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 100295 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 100295 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Slutt på sponsing av barnUsing previous value: 105309 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Slutt på sponsing av barnUsing previous amount: 105309 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
 </sst>
@@ -683,14 +662,14 @@
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -733,10 +712,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -799,10 +778,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -831,7 +810,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -876,20 +857,18 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
@@ -897,13 +876,15 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6"/>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7">
@@ -948,20 +929,18 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
@@ -969,13 +948,15 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7"/>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
@@ -1020,20 +1001,18 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
@@ -1041,13 +1020,15 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8"/>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9">
@@ -1092,20 +1073,18 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
@@ -1113,13 +1092,15 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9"/>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
@@ -1164,20 +1145,18 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
@@ -1185,13 +1164,15 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10"/>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11">
@@ -1236,20 +1217,18 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
@@ -1257,13 +1236,15 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11"/>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12">
@@ -1308,20 +1289,18 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
@@ -1329,13 +1308,15 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12"/>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13">
@@ -1380,20 +1361,18 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
@@ -1401,13 +1380,15 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13"/>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13"/>
     </row>
     <row r="14" spans="1:31">
       <c r="A14">
@@ -1452,20 +1433,18 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
@@ -1473,13 +1452,15 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14"/>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15">
@@ -1524,20 +1505,18 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
@@ -1545,13 +1524,15 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15"/>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15"/>
     </row>
     <row r="16" spans="1:31">
       <c r="A16">
@@ -1596,20 +1577,18 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
@@ -1617,13 +1596,15 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16"/>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16"/>
     </row>
     <row r="17" spans="1:31">
       <c r="A17">
@@ -1668,20 +1649,18 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
@@ -1689,13 +1668,15 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17"/>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17"/>
     </row>
     <row r="18" spans="1:31">
       <c r="A18">
@@ -1740,20 +1721,18 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
@@ -1761,13 +1740,15 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18"/>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18"/>
     </row>
     <row r="19" spans="1:31">
       <c r="A19">
@@ -1812,20 +1793,18 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
@@ -1833,13 +1812,15 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19"/>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19"/>
     </row>
     <row r="20" spans="1:31">
       <c r="A20">
@@ -1884,20 +1865,18 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
@@ -1905,13 +1884,15 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20"/>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
@@ -1956,20 +1937,18 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
@@ -1977,13 +1956,15 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21"/>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21"/>
     </row>
     <row r="22" spans="1:31">
       <c r="A22">
@@ -2028,36 +2009,37 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="6">
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>21192</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>105960</v>
       </c>
       <c r="Z22" s="1">
         <v>105960</v>
       </c>
       <c r="AA22">
-        <v>0.0</v>
+        <v>105960</v>
       </c>
       <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
         <v>-25404.0</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22">
         <v>-1.1987542468856</v>
       </c>
-      <c r="AD22"/>
+      <c r="AE22"/>
     </row>
     <row r="23" spans="1:31">
       <c r="A23">
@@ -2102,36 +2084,37 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U23" s="6">
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="1">
         <v>-26674.5</v>
       </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>22251</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>111255</v>
       </c>
       <c r="Z23" s="1">
         <v>111255</v>
       </c>
       <c r="AA23">
-        <v>0.0</v>
+        <v>111255</v>
       </c>
       <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
         <v>-26675.0</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AD23">
         <v>-1.1988225248303</v>
       </c>
-      <c r="AD23"/>
+      <c r="AE23"/>
     </row>
     <row r="24" spans="1:31">
       <c r="A24">
@@ -2176,36 +2159,37 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U24" s="6">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="1">
         <v>-28008.5</v>
       </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>23363</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>116815</v>
       </c>
       <c r="Z24" s="1">
         <v>116815</v>
       </c>
       <c r="AA24">
-        <v>0.0</v>
+        <v>116815</v>
       </c>
       <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
         <v>-28009.0</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AD24">
         <v>-1.1988614475881</v>
       </c>
-      <c r="AD24"/>
+      <c r="AE24"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25">
@@ -2250,36 +2234,37 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U25" s="6">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="1">
         <v>-29408.5</v>
       </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>24531</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>122655</v>
       </c>
       <c r="Z25" s="1">
         <v>122655</v>
       </c>
       <c r="AA25">
-        <v>0.0</v>
+        <v>122655</v>
       </c>
       <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
         <v>-29409.0</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AD25">
         <v>-1.1988504341446</v>
       </c>
-      <c r="AD25"/>
+      <c r="AE25"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26">
@@ -2324,36 +2309,37 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U26" s="6">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="1">
         <v>-30879.5</v>
       </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>25757</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>128785</v>
       </c>
       <c r="Z26" s="1">
         <v>128785</v>
       </c>
       <c r="AA26">
-        <v>0.0</v>
+        <v>128785</v>
       </c>
       <c r="AB26">
+        <v>0.0</v>
+      </c>
+      <c r="AC26">
         <v>-30880.0</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AD26">
         <v>-1.1988973871181</v>
       </c>
-      <c r="AD26"/>
+      <c r="AE26"/>
     </row>
     <row r="27" spans="1:31">
       <c r="A27">
@@ -2398,36 +2384,37 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U27" s="6">
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="1">
         <v>-32424.0</v>
       </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>27044</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>135220</v>
       </c>
       <c r="Z27" s="1">
         <v>135220</v>
       </c>
       <c r="AA27">
-        <v>0.0</v>
+        <v>135220</v>
       </c>
       <c r="AB27">
+        <v>0.0</v>
+      </c>
+      <c r="AC27">
         <v>-32424.0</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AD27">
         <v>-1.1989350687768</v>
       </c>
-      <c r="AD27"/>
+      <c r="AE27"/>
     </row>
     <row r="28" spans="1:31">
       <c r="A28">
@@ -2472,36 +2459,37 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U28" s="6">
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="1">
         <v>-40383.0</v>
       </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>78600</v>
       </c>
       <c r="Z28" s="1">
         <v>78600</v>
       </c>
       <c r="AA28">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB28">
+        <v>0.0</v>
+      </c>
+      <c r="AC28">
         <v>-40383.0</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AD28">
         <v>-2.568893129771</v>
       </c>
-      <c r="AD28"/>
+      <c r="AE28"/>
     </row>
     <row r="29" spans="1:31">
       <c r="A29">
@@ -2546,36 +2534,37 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U29" s="6">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="1">
         <v>-42402.0</v>
       </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>16506</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>82530</v>
       </c>
       <c r="Z29" s="1">
         <v>82530</v>
       </c>
       <c r="AA29">
-        <v>0.0</v>
+        <v>82530</v>
       </c>
       <c r="AB29">
+        <v>0.0</v>
+      </c>
+      <c r="AC29">
         <v>-42403.0</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AD29">
         <v>-2.5689446261965</v>
       </c>
-      <c r="AD29"/>
+      <c r="AE29"/>
     </row>
     <row r="30" spans="1:31">
       <c r="A30">
@@ -2620,36 +2609,37 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U30" s="6">
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="1">
         <v>-44522.5</v>
       </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>17331</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>86655</v>
       </c>
       <c r="Z30" s="1">
         <v>86655</v>
       </c>
       <c r="AA30">
-        <v>0.0</v>
+        <v>86655</v>
       </c>
       <c r="AB30">
+        <v>0.0</v>
+      </c>
+      <c r="AC30">
         <v>-44523.0</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AD30">
         <v>-2.5689804396746</v>
       </c>
-      <c r="AD30"/>
+      <c r="AE30"/>
     </row>
     <row r="31" spans="1:31">
       <c r="A31">
@@ -2694,36 +2684,37 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="6">
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="1">
         <v>-46748.5</v>
       </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>18197</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>90985</v>
       </c>
       <c r="Z31" s="1">
         <v>90985</v>
       </c>
       <c r="AA31">
-        <v>0.0</v>
+        <v>90985</v>
       </c>
       <c r="AB31">
+        <v>0.0</v>
+      </c>
+      <c r="AC31">
         <v>-46749.0</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AD31">
         <v>-2.5690498433808</v>
       </c>
-      <c r="AD31"/>
+      <c r="AE31"/>
     </row>
     <row r="32" spans="1:31">
       <c r="A32">
@@ -2768,36 +2759,37 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U32" s="6">
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="1">
         <v>-49087.0</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>19106</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>95530</v>
       </c>
       <c r="Z32" s="1">
         <v>95530</v>
       </c>
       <c r="AA32">
-        <v>0.0</v>
+        <v>95530</v>
       </c>
       <c r="AB32">
+        <v>0.0</v>
+      </c>
+      <c r="AC32">
         <v>-49087.0</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AD32">
         <v>-2.5691929236889</v>
       </c>
-      <c r="AD32"/>
+      <c r="AE32"/>
     </row>
     <row r="33" spans="1:31">
       <c r="A33">
@@ -2842,36 +2834,37 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U33" s="6">
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="1">
         <v>-51541.5</v>
       </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>20061</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>100305</v>
       </c>
       <c r="Z33" s="1">
         <v>100305</v>
       </c>
       <c r="AA33">
-        <v>0.0</v>
+        <v>100305</v>
       </c>
       <c r="AB33">
+        <v>0.0</v>
+      </c>
+      <c r="AC33">
         <v>-51542.0</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AD33">
         <v>-2.569263745576</v>
       </c>
-      <c r="AD33"/>
+      <c r="AE33"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34">
@@ -2916,36 +2909,37 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U34" s="6">
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="1">
         <v>-54118.0</v>
       </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>21064</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>105320</v>
       </c>
       <c r="Z34" s="1">
         <v>105320</v>
       </c>
       <c r="AA34">
-        <v>0.0</v>
+        <v>105320</v>
       </c>
       <c r="AB34">
+        <v>0.0</v>
+      </c>
+      <c r="AC34">
         <v>-54119.0</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AD34">
         <v>-2.5692650968477</v>
       </c>
-      <c r="AD34"/>
+      <c r="AE34"/>
     </row>
     <row r="35" spans="1:31">
       <c r="A35">
@@ -2990,36 +2984,37 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U35" s="6">
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="1">
         <v>-56824.5</v>
       </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>22117</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>110585</v>
       </c>
       <c r="Z35" s="1">
         <v>110585</v>
       </c>
       <c r="AA35">
-        <v>0.0</v>
+        <v>110585</v>
       </c>
       <c r="AB35">
+        <v>0.0</v>
+      </c>
+      <c r="AC35">
         <v>-56825.0</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AD35">
         <v>-2.5692905909481</v>
       </c>
-      <c r="AD35"/>
+      <c r="AE35"/>
     </row>
     <row r="36" spans="1:31">
       <c r="A36">
@@ -3064,36 +3059,37 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U36" s="6">
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="1">
         <v>-59666.0</v>
       </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>23222</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>116110</v>
       </c>
       <c r="Z36" s="1">
         <v>116110</v>
       </c>
       <c r="AA36">
-        <v>0.0</v>
+        <v>116110</v>
       </c>
       <c r="AB36">
+        <v>0.0</v>
+      </c>
+      <c r="AC36">
         <v>-59667.0</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AD36">
         <v>-2.5694169322194</v>
       </c>
-      <c r="AD36"/>
+      <c r="AE36"/>
     </row>
     <row r="37" spans="1:31">
       <c r="A37">
@@ -3138,36 +3134,37 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U37" s="6">
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="1">
         <v>-62649.5</v>
       </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>24383</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>121915</v>
       </c>
       <c r="Z37" s="1">
         <v>121915</v>
       </c>
       <c r="AA37">
-        <v>0.0</v>
+        <v>121915</v>
       </c>
       <c r="AB37">
+        <v>0.0</v>
+      </c>
+      <c r="AC37">
         <v>-62650.0</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AD37">
         <v>-2.5694131156954</v>
       </c>
-      <c r="AD37"/>
+      <c r="AE37"/>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="7">
@@ -3212,36 +3209,37 @@
       <c r="R38" s="8">
         <v>0</v>
       </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U38" s="8">
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8">
         <v>-65782.0</v>
       </c>
-      <c r="V38" s="8">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8">
         <v>25602</v>
-      </c>
-      <c r="Y38" s="8">
-        <v>128010</v>
       </c>
       <c r="Z38" s="8">
         <v>128010</v>
       </c>
       <c r="AA38" s="7">
-        <v>0.0</v>
+        <v>128010</v>
       </c>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-65782.0</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AD38" s="7">
         <v>-2.56940863995</v>
       </c>
-      <c r="AD38" s="7"/>
+      <c r="AE38"/>
     </row>
     <row r="39" spans="1:31">
       <c r="A39">
@@ -3286,36 +3284,37 @@
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="6">
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="1">
         <v>-74652.0</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>78600</v>
       </c>
       <c r="Z39" s="1">
         <v>78600</v>
       </c>
       <c r="AA39">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-74653.0</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AD39">
         <v>-4.7489185750636</v>
       </c>
-      <c r="AD39"/>
+      <c r="AE39"/>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="10">
@@ -3360,20 +3359,18 @@
       <c r="R40" s="11">
         <v>0</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="U40" s="11">
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11">
         <v>-86638.0</v>
       </c>
-      <c r="V40" s="11">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
@@ -3381,13 +3378,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-86638.0</v>
       </c>
-      <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
+      <c r="AE40"/>
     </row>
     <row r="41" spans="1:31">
       <c r="A41">
@@ -3432,20 +3432,18 @@
       <c r="R41" s="1">
         <v>0</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="6">
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="1">
         <v>-90970.0</v>
       </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
@@ -3453,13 +3451,15 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-90970.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41"/>
+      <c r="AE41"/>
     </row>
     <row r="42" spans="1:31">
       <c r="A42">
@@ -3504,20 +3504,18 @@
       <c r="R42" s="1">
         <v>0</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U42" s="6">
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="1">
         <v>-95518.0</v>
       </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
@@ -3525,13 +3523,15 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-95519.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42"/>
+      <c r="AE42"/>
     </row>
     <row r="43" spans="1:31">
       <c r="A43">
@@ -3576,20 +3576,18 @@
       <c r="R43" s="1">
         <v>0</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="6">
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="1">
         <v>-100294.0</v>
       </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
@@ -3597,13 +3595,15 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-100295.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43"/>
+      <c r="AE43"/>
     </row>
     <row r="44" spans="1:31">
       <c r="A44">
@@ -3648,20 +3648,18 @@
       <c r="R44" s="1">
         <v>0</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="6">
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="1">
         <v>-105309.0</v>
       </c>
-      <c r="V44" s="1">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
@@ -3669,13 +3667,15 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-105309.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44"/>
+      <c r="AE44"/>
     </row>
     <row r="45" spans="1:31">
       <c r="A45">
@@ -3720,20 +3720,18 @@
       <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="6"/>
       <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
@@ -3741,13 +3739,15 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>0.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45"/>
+      <c r="AC45">
+        <v>0.0</v>
+      </c>
+      <c r="AE45"/>
     </row>
     <row r="46" spans="1:31">
       <c r="A46">
@@ -3792,20 +3792,18 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="6"/>
       <c r="V46" s="1">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
@@ -3813,13 +3811,15 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46"/>
+      <c r="AC46">
+        <v>0.0</v>
+      </c>
+      <c r="AE46"/>
     </row>
     <row r="47" spans="1:31">
       <c r="A47">
@@ -3864,20 +3864,18 @@
       <c r="R47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="6"/>
       <c r="V47" s="1">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
@@ -3885,13 +3883,15 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47"/>
+      <c r="AC47">
+        <v>0.0</v>
+      </c>
+      <c r="AE47"/>
     </row>
     <row r="48" spans="1:31">
       <c r="A48">
@@ -3936,20 +3936,18 @@
       <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="6"/>
       <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
@@ -3957,13 +3955,15 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>0.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48"/>
+      <c r="AC48">
+        <v>0.0</v>
+      </c>
+      <c r="AE48"/>
     </row>
     <row r="49" spans="1:31">
       <c r="A49">
@@ -4008,20 +4008,18 @@
       <c r="R49" s="1">
         <v>0</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="6"/>
       <c r="V49" s="1">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
@@ -4029,13 +4027,15 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49"/>
+      <c r="AC49">
+        <v>0.0</v>
+      </c>
+      <c r="AE49"/>
     </row>
     <row r="50" spans="1:31">
       <c r="A50">
@@ -4080,20 +4080,18 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="6"/>
       <c r="V50" s="1">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
@@ -4101,13 +4099,15 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50"/>
+      <c r="AC50">
+        <v>0.0</v>
+      </c>
+      <c r="AE50"/>
     </row>
     <row r="51" spans="1:31">
       <c r="A51">
@@ -4152,20 +4152,18 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="6"/>
       <c r="V51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
@@ -4173,13 +4171,15 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51"/>
+      <c r="AC51">
+        <v>0.0</v>
+      </c>
+      <c r="AE51"/>
     </row>
     <row r="52" spans="1:31">
       <c r="A52">
@@ -4224,20 +4224,18 @@
       <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U52" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="6"/>
       <c r="V52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
@@ -4245,13 +4243,15 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB52">
         <v>0.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52"/>
+      <c r="AC52">
+        <v>0.0</v>
+      </c>
+      <c r="AE52"/>
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3">
@@ -4296,20 +4296,18 @@
       <c r="R53" s="13">
         <v>0</v>
       </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U53" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S53" s="13">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
       <c r="V53" s="13">
-        <v>0</v>
-      </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W53" s="13">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
@@ -4317,13 +4315,16 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC53" s="14"/>
+      <c r="AC53" s="3">
+        <v>0.0</v>
+      </c>
       <c r="AD53" s="3"/>
+      <c r="AE53"/>
     </row>
     <row r="54" spans="1:31">
       <c r="A54">
@@ -4368,20 +4369,18 @@
       <c r="R54" s="1">
         <v>0</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U54" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="6"/>
       <c r="V54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
@@ -4389,13 +4388,15 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>0.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54"/>
+      <c r="AC54">
+        <v>0.0</v>
+      </c>
+      <c r="AE54"/>
     </row>
     <row r="55" spans="1:31">
       <c r="A55">
@@ -4440,20 +4441,18 @@
       <c r="R55" s="1">
         <v>0</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U55" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="6"/>
       <c r="V55" s="1">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
@@ -4461,13 +4460,15 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <v>0.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55"/>
+      <c r="AC55">
+        <v>0.0</v>
+      </c>
+      <c r="AE55"/>
     </row>
     <row r="56" spans="1:31">
       <c r="A56">
@@ -4512,20 +4513,18 @@
       <c r="R56" s="1">
         <v>0</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U56" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="6"/>
       <c r="V56" s="1">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
@@ -4533,13 +4532,15 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <v>0.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56"/>
+      <c r="AC56">
+        <v>0.0</v>
+      </c>
+      <c r="AE56"/>
     </row>
     <row r="57" spans="1:31">
       <c r="A57" s="3">
@@ -4584,20 +4585,18 @@
       <c r="R57" s="13">
         <v>0</v>
       </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U57" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S57" s="13">
+        <v>0</v>
+      </c>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
       <c r="V57" s="13">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
@@ -4605,13 +4604,16 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC57" s="14"/>
+      <c r="AC57" s="3">
+        <v>0.0</v>
+      </c>
       <c r="AD57" s="3"/>
+      <c r="AE57"/>
     </row>
     <row r="58" spans="1:31">
       <c r="A58">
@@ -4656,20 +4658,18 @@
       <c r="R58" s="1">
         <v>0</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U58" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="6"/>
       <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
@@ -4677,13 +4677,15 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB58">
         <v>0.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58"/>
+      <c r="AC58">
+        <v>0.0</v>
+      </c>
+      <c r="AE58"/>
     </row>
     <row r="59" spans="1:31">
       <c r="A59">
@@ -4728,20 +4730,18 @@
       <c r="R59" s="1">
         <v>0</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U59" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="6"/>
       <c r="V59" s="1">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
@@ -4749,13 +4749,15 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59"/>
+      <c r="AC59">
+        <v>0.0</v>
+      </c>
+      <c r="AE59"/>
     </row>
     <row r="60" spans="1:31">
       <c r="A60">
@@ -4800,20 +4802,18 @@
       <c r="R60" s="1">
         <v>0</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U60" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="6"/>
       <c r="V60" s="1">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
@@ -4821,13 +4821,15 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB60">
         <v>0.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60"/>
+      <c r="AC60">
+        <v>0.0</v>
+      </c>
+      <c r="AE60"/>
     </row>
     <row r="61" spans="1:31">
       <c r="A61">
@@ -4872,20 +4874,18 @@
       <c r="R61" s="1">
         <v>0</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U61" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="6"/>
       <c r="V61" s="1">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
@@ -4893,13 +4893,15 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB61">
         <v>0.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61"/>
+      <c r="AC61">
+        <v>0.0</v>
+      </c>
+      <c r="AE61"/>
     </row>
     <row r="62" spans="1:31">
       <c r="A62">
@@ -4944,20 +4946,18 @@
       <c r="R62" s="1">
         <v>0</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U62" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="6"/>
       <c r="V62" s="1">
-        <v>0</v>
-      </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
@@ -4965,13 +4965,15 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62"/>
+      <c r="AC62">
+        <v>0.0</v>
+      </c>
+      <c r="AE62"/>
     </row>
     <row r="63" spans="1:31">
       <c r="A63">
@@ -5016,20 +5018,18 @@
       <c r="R63" s="1">
         <v>0</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="6"/>
       <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
@@ -5037,13 +5037,15 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB63">
         <v>0.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63"/>
+      <c r="AC63">
+        <v>0.0</v>
+      </c>
+      <c r="AE63"/>
     </row>
     <row r="64" spans="1:31">
       <c r="A64">
@@ -5088,20 +5090,18 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="6"/>
       <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
@@ -5109,13 +5109,15 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB64">
         <v>0.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64"/>
+      <c r="AC64">
+        <v>0.0</v>
+      </c>
+      <c r="AE64"/>
     </row>
     <row r="65" spans="1:31">
       <c r="A65">
@@ -5160,20 +5162,18 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U65" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="6"/>
       <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
@@ -5181,13 +5181,15 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB65">
         <v>0.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65"/>
+      <c r="AC65">
+        <v>0.0</v>
+      </c>
+      <c r="AE65"/>
     </row>
     <row r="66" spans="1:31">
       <c r="A66">
@@ -5232,20 +5234,18 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="6"/>
       <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
@@ -5253,13 +5253,15 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB66">
         <v>0.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66"/>
+      <c r="AC66">
+        <v>0.0</v>
+      </c>
+      <c r="AE66"/>
     </row>
     <row r="67" spans="1:31">
       <c r="A67">
@@ -5304,20 +5306,18 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="6"/>
       <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
@@ -5325,13 +5325,15 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB67">
         <v>0.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67"/>
+      <c r="AC67">
+        <v>0.0</v>
+      </c>
+      <c r="AE67"/>
     </row>
     <row r="68" spans="1:31">
       <c r="A68">
@@ -5376,20 +5378,18 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="6"/>
       <c r="V68" s="1">
-        <v>0</v>
-      </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
@@ -5397,13 +5397,15 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB68">
         <v>0.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68"/>
+      <c r="AC68">
+        <v>0.0</v>
+      </c>
+      <c r="AE68"/>
     </row>
     <row r="69" spans="1:31">
       <c r="A69">
@@ -5448,20 +5450,18 @@
       <c r="R69" s="1">
         <v>0</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="6"/>
       <c r="V69" s="1">
-        <v>0</v>
-      </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
@@ -5469,13 +5469,15 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB69">
         <v>0.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69"/>
+      <c r="AC69">
+        <v>0.0</v>
+      </c>
+      <c r="AE69"/>
     </row>
     <row r="70" spans="1:31">
       <c r="A70">
@@ -5520,20 +5522,18 @@
       <c r="R70" s="1">
         <v>0</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U70" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="6"/>
       <c r="V70" s="1">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
@@ -5541,13 +5541,15 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB70">
         <v>0.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70"/>
+      <c r="AC70">
+        <v>0.0</v>
+      </c>
+      <c r="AE70"/>
     </row>
     <row r="71" spans="1:31">
       <c r="A71">
@@ -5592,20 +5594,18 @@
       <c r="R71" s="1">
         <v>0</v>
       </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U71" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="6"/>
       <c r="V71" s="1">
-        <v>0</v>
-      </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
@@ -5613,13 +5613,15 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB71">
         <v>0.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71"/>
+      <c r="AC71">
+        <v>0.0</v>
+      </c>
+      <c r="AE71"/>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" s="15">
@@ -5664,20 +5666,18 @@
       <c r="R72" s="5">
         <v>0</v>
       </c>
-      <c r="S72" s="16"/>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="U72" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="S72" s="5">
+        <v>0</v>
+      </c>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
       <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
@@ -5685,13 +5685,16 @@
         <v>0</v>
       </c>
       <c r="AA72" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="15">
         <v>0.0</v>
       </c>
-      <c r="AC72" s="16"/>
+      <c r="AC72" s="15">
+        <v>0.0</v>
+      </c>
       <c r="AD72" s="15"/>
+      <c r="AE72"/>
     </row>
     <row r="73" spans="1:31">
       <c r="B73" s="1"/>
@@ -5711,15 +5714,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -5739,15 +5741,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -5767,15 +5768,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -5795,15 +5795,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -5823,15 +5822,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -5851,15 +5849,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -5879,15 +5876,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -5907,15 +5903,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -5964,19 +5959,19 @@
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -5984,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -5996,7 +5991,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -6008,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -6018,10 +6013,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6084,10 +6079,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -6116,7 +6111,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -6157,33 +6154,35 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6">
-        <v>0.0</v>
-      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6"/>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" t="s">
-        <v>42</v>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6225,33 +6224,35 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
       <c r="U7" s="6">
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7">
-        <v>0.0</v>
-      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7"/>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" t="s">
-        <v>42</v>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6293,33 +6294,35 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="6">
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8">
-        <v>0.0</v>
-      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8"/>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" t="s">
-        <v>42</v>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6361,33 +6364,35 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="6">
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9">
-        <v>0.0</v>
-      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" t="s">
-        <v>42</v>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6429,33 +6434,35 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="6">
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10">
-        <v>0.0</v>
-      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10"/>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" t="s">
-        <v>42</v>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6497,33 +6504,35 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="6">
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11">
-        <v>0.0</v>
-      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11"/>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" t="s">
-        <v>42</v>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6565,33 +6574,35 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="6">
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12">
-        <v>0.0</v>
-      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12"/>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" t="s">
-        <v>42</v>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6633,33 +6644,35 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" s="6">
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13">
-        <v>0.0</v>
-      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13"/>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" t="s">
-        <v>42</v>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6701,33 +6714,35 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="6">
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14">
-        <v>0.0</v>
-      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14"/>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" t="s">
-        <v>42</v>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6769,33 +6784,35 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="6">
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15">
-        <v>0.0</v>
-      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15"/>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" t="s">
-        <v>42</v>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6837,33 +6854,35 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="6">
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16">
-        <v>0.0</v>
-      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16"/>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" t="s">
-        <v>42</v>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6905,33 +6924,35 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="6">
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17">
-        <v>0.0</v>
-      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17"/>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" t="s">
-        <v>42</v>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6973,33 +6994,35 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="6">
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18">
-        <v>0.0</v>
-      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18"/>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" t="s">
-        <v>42</v>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -7041,33 +7064,35 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="6">
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19">
-        <v>0.0</v>
-      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19"/>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" t="s">
-        <v>42</v>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7109,33 +7134,35 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="6">
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20">
-        <v>0.0</v>
-      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20"/>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s">
-        <v>42</v>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7177,33 +7204,35 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
       <c r="U21" s="6">
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21">
-        <v>0.0</v>
-      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" t="s">
-        <v>42</v>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7249,33 +7278,35 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>21192</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>105960</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22">
-        <v>0.0</v>
-      </c>
+      <c r="AA22"/>
       <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
         <v>-25404.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" t="s">
-        <v>43</v>
+      <c r="AE22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7321,33 +7352,35 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V23" s="1">
         <v>-26674.5</v>
       </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>22251</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>111255</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23">
-        <v>0.0</v>
-      </c>
+      <c r="AA23"/>
       <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
         <v>-26675.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" t="s">
-        <v>44</v>
+      <c r="AE23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7393,33 +7426,35 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="1">
         <v>-28008.5</v>
       </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>23363</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>116815</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24">
-        <v>0.0</v>
-      </c>
+      <c r="AA24"/>
       <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
         <v>-28009.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s">
-        <v>45</v>
+      <c r="AE24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7465,33 +7500,35 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V25" s="1">
         <v>-29408.5</v>
       </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>24531</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>122655</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25">
-        <v>0.0</v>
-      </c>
+      <c r="AA25"/>
       <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
         <v>-29409.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" t="s">
-        <v>46</v>
+      <c r="AE25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7537,33 +7574,35 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="1">
         <v>-30879.5</v>
       </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>25757</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>128785</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26">
-        <v>0.0</v>
-      </c>
+      <c r="AA26"/>
       <c r="AB26">
+        <v>0.0</v>
+      </c>
+      <c r="AC26">
         <v>-30880.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" t="s">
-        <v>47</v>
+      <c r="AE26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7609,33 +7648,35 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="1">
         <v>-32424.0</v>
       </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>27044</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>135220</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27">
-        <v>0.0</v>
-      </c>
+      <c r="AA27"/>
       <c r="AB27">
+        <v>0.0</v>
+      </c>
+      <c r="AC27">
         <v>-32424.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" t="s">
-        <v>48</v>
+      <c r="AE27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7681,33 +7722,35 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V28" s="1">
         <v>-40383.0</v>
       </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>15720</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>78600</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28">
-        <v>0.0</v>
-      </c>
+      <c r="AA28"/>
       <c r="AB28">
+        <v>0.0</v>
+      </c>
+      <c r="AC28">
         <v>-40383.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" t="s">
-        <v>49</v>
+      <c r="AE28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7753,33 +7796,35 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V29" s="1">
         <v>-42402.0</v>
       </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>16506</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Z29" s="1">
         <v>82530</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29">
-        <v>0.0</v>
-      </c>
+      <c r="AA29"/>
       <c r="AB29">
+        <v>0.0</v>
+      </c>
+      <c r="AC29">
         <v>-42403.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" t="s">
-        <v>50</v>
+      <c r="AE29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7825,33 +7870,35 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="1">
         <v>-44522.5</v>
       </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>17331</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Z30" s="1">
         <v>86655</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30">
-        <v>0.0</v>
-      </c>
+      <c r="AA30"/>
       <c r="AB30">
+        <v>0.0</v>
+      </c>
+      <c r="AC30">
         <v>-44523.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" t="s">
-        <v>51</v>
+      <c r="AE30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7897,33 +7944,35 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="1">
         <v>-46748.5</v>
       </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>18197</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z31" s="1">
         <v>90985</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31">
-        <v>0.0</v>
-      </c>
+      <c r="AA31"/>
       <c r="AB31">
+        <v>0.0</v>
+      </c>
+      <c r="AC31">
         <v>-46749.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" t="s">
-        <v>52</v>
+      <c r="AE31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7969,33 +8018,35 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V32" s="1">
         <v>-49087.0</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>19106</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Z32" s="1">
         <v>95530</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32">
-        <v>0.0</v>
-      </c>
+      <c r="AA32"/>
       <c r="AB32">
+        <v>0.0</v>
+      </c>
+      <c r="AC32">
         <v>-49087.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" t="s">
-        <v>53</v>
+      <c r="AE32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -8041,33 +8092,35 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V33" s="1">
         <v>-51541.5</v>
       </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>20061</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Z33" s="1">
         <v>100305</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33">
-        <v>0.0</v>
-      </c>
+      <c r="AA33"/>
       <c r="AB33">
+        <v>0.0</v>
+      </c>
+      <c r="AC33">
         <v>-51542.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" t="s">
-        <v>54</v>
+      <c r="AE33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -8113,33 +8166,35 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
       <c r="U34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V34" s="1">
         <v>-54118.0</v>
       </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>21064</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Z34" s="1">
         <v>105320</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34">
-        <v>0.0</v>
-      </c>
+      <c r="AA34"/>
       <c r="AB34">
+        <v>0.0</v>
+      </c>
+      <c r="AC34">
         <v>-54119.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" t="s">
-        <v>55</v>
+      <c r="AE34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8185,33 +8240,35 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V35" s="1">
         <v>-56824.5</v>
       </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>22117</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Z35" s="1">
         <v>110585</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35">
-        <v>0.0</v>
-      </c>
+      <c r="AA35"/>
       <c r="AB35">
+        <v>0.0</v>
+      </c>
+      <c r="AC35">
         <v>-56825.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" t="s">
-        <v>56</v>
+      <c r="AE35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8257,33 +8314,35 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V36" s="1">
         <v>-59666.0</v>
       </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>23222</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Z36" s="1">
         <v>116110</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36">
-        <v>0.0</v>
-      </c>
+      <c r="AA36"/>
       <c r="AB36">
+        <v>0.0</v>
+      </c>
+      <c r="AC36">
         <v>-59667.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36" t="s">
-        <v>57</v>
+      <c r="AE36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8329,33 +8388,35 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V37" s="1">
         <v>-62649.5</v>
       </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>24383</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Z37" s="1">
         <v>121915</v>
       </c>
-      <c r="Z37" s="1"/>
-      <c r="AA37">
-        <v>0.0</v>
-      </c>
+      <c r="AA37"/>
       <c r="AB37">
+        <v>0.0</v>
+      </c>
+      <c r="AC37">
         <v>-62650.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37" t="s">
-        <v>58</v>
+      <c r="AE37" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8401,33 +8462,36 @@
       <c r="R38" s="8">
         <v>0</v>
       </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8"/>
       <c r="U38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="V38" s="8">
         <v>-65782.0</v>
       </c>
-      <c r="V38" s="8">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8">
         <v>25602</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Z38" s="8">
         <v>128010</v>
       </c>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="7">
-        <v>0.0</v>
-      </c>
+      <c r="AA38" s="7"/>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-65782.0</v>
       </c>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="7" t="s">
-        <v>59</v>
+      <c r="AD38" s="7"/>
+      <c r="AE38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8473,33 +8537,35 @@
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1"/>
       <c r="U39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V39" s="1">
         <v>-74652.0</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
         <v>15720</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Z39" s="1">
         <v>78600</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AA39">
-        <v>0.0</v>
-      </c>
+      <c r="AA39"/>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-74653.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" t="s">
-        <v>60</v>
+      <c r="AE39" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8543,33 +8609,36 @@
       <c r="R40" s="11">
         <v>0</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11"/>
       <c r="U40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="V40" s="11">
         <v>-86638.0</v>
       </c>
-      <c r="V40" s="11">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="10">
-        <v>0.0</v>
-      </c>
+      <c r="Z40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10"/>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-86638.0</v>
       </c>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="10" t="s">
-        <v>61</v>
+      <c r="AD40" s="10"/>
+      <c r="AE40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8613,33 +8682,35 @@
       <c r="R41" s="1">
         <v>0</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
       <c r="U41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V41" s="1">
         <v>-90970.0</v>
       </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AA41">
-        <v>0.0</v>
-      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41"/>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-90970.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" t="s">
-        <v>62</v>
+      <c r="AE41" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8683,33 +8754,35 @@
       <c r="R42" s="1">
         <v>0</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1"/>
       <c r="U42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V42" s="1">
         <v>-95518.0</v>
       </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42">
-        <v>0.0</v>
-      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42"/>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-95519.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42" t="s">
-        <v>63</v>
+      <c r="AE42" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8753,33 +8826,35 @@
       <c r="R43" s="1">
         <v>0</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1"/>
       <c r="U43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V43" s="1">
         <v>-100294.0</v>
       </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
-      <c r="AA43">
-        <v>0.0</v>
-      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43"/>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-100295.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43" t="s">
-        <v>64</v>
+      <c r="AE43" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8823,33 +8898,35 @@
       <c r="R44" s="1">
         <v>0</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1"/>
       <c r="U44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V44" s="1">
         <v>-105309.0</v>
       </c>
-      <c r="V44" s="1">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44">
-        <v>0.0</v>
-      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44"/>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-105309.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44" t="s">
-        <v>65</v>
+      <c r="AE44" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8891,33 +8968,35 @@
       <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1"/>
       <c r="U45" s="6">
         <v>0.0</v>
       </c>
       <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AA45">
-        <v>0.0</v>
-      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45"/>
       <c r="AB45">
         <v>0.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" t="s">
-        <v>42</v>
+      <c r="AC45">
+        <v>0.0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8959,33 +9038,35 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1"/>
       <c r="U46" s="6">
         <v>0.0</v>
       </c>
       <c r="V46" s="1">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AA46">
-        <v>0.0</v>
-      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46"/>
       <c r="AB46">
         <v>0.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46" t="s">
-        <v>42</v>
+      <c r="AC46">
+        <v>0.0</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -9027,33 +9108,35 @@
       <c r="R47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1"/>
       <c r="U47" s="6">
         <v>0.0</v>
       </c>
       <c r="V47" s="1">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AA47">
-        <v>0.0</v>
-      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47"/>
       <c r="AB47">
         <v>0.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47" t="s">
-        <v>42</v>
+      <c r="AC47">
+        <v>0.0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -9095,33 +9178,35 @@
       <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
       <c r="U48" s="6">
         <v>0.0</v>
       </c>
       <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48">
-        <v>0.0</v>
-      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48"/>
       <c r="AB48">
         <v>0.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" t="s">
-        <v>42</v>
+      <c r="AC48">
+        <v>0.0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9163,33 +9248,35 @@
       <c r="R49" s="1">
         <v>0</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1"/>
       <c r="U49" s="6">
         <v>0.0</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49">
-        <v>0.0</v>
-      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49"/>
       <c r="AB49">
         <v>0.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49" t="s">
-        <v>42</v>
+      <c r="AC49">
+        <v>0.0</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9231,33 +9318,35 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1"/>
       <c r="U50" s="6">
         <v>0.0</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="1"/>
-      <c r="AA50">
-        <v>0.0</v>
-      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50"/>
       <c r="AB50">
         <v>0.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50" t="s">
-        <v>42</v>
+      <c r="AC50">
+        <v>0.0</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9299,33 +9388,35 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1"/>
       <c r="U51" s="6">
         <v>0.0</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
-      <c r="AA51">
-        <v>0.0</v>
-      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51"/>
       <c r="AB51">
         <v>0.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" t="s">
-        <v>42</v>
+      <c r="AC51">
+        <v>0.0</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9367,33 +9458,35 @@
       <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1"/>
       <c r="U52" s="6">
         <v>0.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
-      <c r="Z52" s="1"/>
-      <c r="AA52">
-        <v>0.0</v>
-      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52"/>
       <c r="AB52">
         <v>0.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52" t="s">
-        <v>42</v>
+      <c r="AC52">
+        <v>0.0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9435,33 +9528,36 @@
       <c r="R53" s="13">
         <v>0</v>
       </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S53" s="13">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13"/>
       <c r="U53" s="13">
         <v>0.0</v>
       </c>
       <c r="V53" s="13">
-        <v>0</v>
-      </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W53" s="13">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3"/>
       <c r="AB53" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="3" t="s">
-        <v>42</v>
+      <c r="AC53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD53" s="3"/>
+      <c r="AE53" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9503,33 +9599,35 @@
       <c r="R54" s="1">
         <v>0</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1"/>
       <c r="U54" s="6">
         <v>0.0</v>
       </c>
       <c r="V54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54">
-        <v>0.0</v>
-      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54"/>
       <c r="AB54">
         <v>0.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54" t="s">
-        <v>42</v>
+      <c r="AC54">
+        <v>0.0</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9571,33 +9669,35 @@
       <c r="R55" s="1">
         <v>0</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1"/>
       <c r="U55" s="6">
         <v>0.0</v>
       </c>
       <c r="V55" s="1">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55">
-        <v>0.0</v>
-      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55"/>
       <c r="AB55">
         <v>0.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" t="s">
-        <v>42</v>
+      <c r="AC55">
+        <v>0.0</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9639,33 +9739,35 @@
       <c r="R56" s="1">
         <v>0</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1"/>
       <c r="U56" s="6">
         <v>0.0</v>
       </c>
       <c r="V56" s="1">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56">
-        <v>0.0</v>
-      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56"/>
       <c r="AB56">
         <v>0.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56" t="s">
-        <v>42</v>
+      <c r="AC56">
+        <v>0.0</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9707,33 +9809,36 @@
       <c r="R57" s="13">
         <v>0</v>
       </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S57" s="13">
+        <v>0</v>
+      </c>
+      <c r="T57" s="13"/>
       <c r="U57" s="13">
         <v>0.0</v>
       </c>
       <c r="V57" s="13">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="3" t="s">
-        <v>42</v>
+      <c r="AC57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD57" s="3"/>
+      <c r="AE57" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9775,33 +9880,35 @@
       <c r="R58" s="1">
         <v>0</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="6">
         <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58">
-        <v>0.0</v>
-      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58"/>
       <c r="AB58">
         <v>0.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58" t="s">
-        <v>42</v>
+      <c r="AC58">
+        <v>0.0</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9843,33 +9950,35 @@
       <c r="R59" s="1">
         <v>0</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1"/>
       <c r="U59" s="6">
         <v>0.0</v>
       </c>
       <c r="V59" s="1">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
-      <c r="Z59" s="1"/>
-      <c r="AA59">
-        <v>0.0</v>
-      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59"/>
       <c r="AB59">
         <v>0.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59" t="s">
-        <v>42</v>
+      <c r="AC59">
+        <v>0.0</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9911,33 +10020,35 @@
       <c r="R60" s="1">
         <v>0</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1"/>
       <c r="U60" s="6">
         <v>0.0</v>
       </c>
       <c r="V60" s="1">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
-      <c r="Z60" s="1"/>
-      <c r="AA60">
-        <v>0.0</v>
-      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60"/>
       <c r="AB60">
         <v>0.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s">
-        <v>42</v>
+      <c r="AC60">
+        <v>0.0</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9979,33 +10090,35 @@
       <c r="R61" s="1">
         <v>0</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1"/>
       <c r="U61" s="6">
         <v>0.0</v>
       </c>
       <c r="V61" s="1">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
-      <c r="Z61" s="1"/>
-      <c r="AA61">
-        <v>0.0</v>
-      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61"/>
       <c r="AB61">
         <v>0.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61" t="s">
-        <v>42</v>
+      <c r="AC61">
+        <v>0.0</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -10047,33 +10160,35 @@
       <c r="R62" s="1">
         <v>0</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1"/>
       <c r="U62" s="6">
         <v>0.0</v>
       </c>
       <c r="V62" s="1">
-        <v>0</v>
-      </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
-      <c r="Z62" s="1"/>
-      <c r="AA62">
-        <v>0.0</v>
-      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62"/>
       <c r="AB62">
         <v>0.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62" t="s">
-        <v>42</v>
+      <c r="AC62">
+        <v>0.0</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -10115,33 +10230,35 @@
       <c r="R63" s="1">
         <v>0</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1"/>
       <c r="U63" s="6">
         <v>0.0</v>
       </c>
       <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
-      <c r="Z63" s="1"/>
-      <c r="AA63">
-        <v>0.0</v>
-      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63"/>
       <c r="AB63">
         <v>0.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" t="s">
-        <v>42</v>
+      <c r="AC63">
+        <v>0.0</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10183,33 +10300,35 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1"/>
       <c r="U64" s="6">
         <v>0.0</v>
       </c>
       <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
-      <c r="Z64" s="1"/>
-      <c r="AA64">
-        <v>0.0</v>
-      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64"/>
       <c r="AB64">
         <v>0.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" t="s">
-        <v>42</v>
+      <c r="AC64">
+        <v>0.0</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10251,33 +10370,35 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1"/>
       <c r="U65" s="6">
         <v>0.0</v>
       </c>
       <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
-      <c r="Z65" s="1"/>
-      <c r="AA65">
-        <v>0.0</v>
-      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65"/>
       <c r="AB65">
         <v>0.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65" t="s">
-        <v>42</v>
+      <c r="AC65">
+        <v>0.0</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10319,33 +10440,35 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1"/>
       <c r="U66" s="6">
         <v>0.0</v>
       </c>
       <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
-      <c r="Z66" s="1"/>
-      <c r="AA66">
-        <v>0.0</v>
-      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66"/>
       <c r="AB66">
         <v>0.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" t="s">
-        <v>42</v>
+      <c r="AC66">
+        <v>0.0</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10387,33 +10510,35 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1"/>
       <c r="U67" s="6">
         <v>0.0</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67">
-        <v>0.0</v>
-      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67"/>
       <c r="AB67">
         <v>0.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" t="s">
-        <v>42</v>
+      <c r="AC67">
+        <v>0.0</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10455,33 +10580,35 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1"/>
       <c r="U68" s="6">
         <v>0.0</v>
       </c>
       <c r="V68" s="1">
-        <v>0</v>
-      </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AA68">
-        <v>0.0</v>
-      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68"/>
       <c r="AB68">
         <v>0.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" t="s">
-        <v>42</v>
+      <c r="AC68">
+        <v>0.0</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10523,33 +10650,35 @@
       <c r="R69" s="1">
         <v>0</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1"/>
       <c r="U69" s="6">
         <v>0.0</v>
       </c>
       <c r="V69" s="1">
-        <v>0</v>
-      </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
-      <c r="Z69" s="1"/>
-      <c r="AA69">
-        <v>0.0</v>
-      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69"/>
       <c r="AB69">
         <v>0.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69" t="s">
-        <v>42</v>
+      <c r="AC69">
+        <v>0.0</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10591,33 +10720,35 @@
       <c r="R70" s="1">
         <v>0</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1"/>
       <c r="U70" s="6">
         <v>0.0</v>
       </c>
       <c r="V70" s="1">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
-      <c r="Z70" s="1"/>
-      <c r="AA70">
-        <v>0.0</v>
-      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70"/>
       <c r="AB70">
         <v>0.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70" t="s">
-        <v>42</v>
+      <c r="AC70">
+        <v>0.0</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10659,33 +10790,35 @@
       <c r="R71" s="1">
         <v>0</v>
       </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1"/>
       <c r="U71" s="6">
         <v>0.0</v>
       </c>
       <c r="V71" s="1">
-        <v>0</v>
-      </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
-      <c r="Z71" s="1"/>
-      <c r="AA71">
-        <v>0.0</v>
-      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71"/>
       <c r="AB71">
         <v>0.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71" t="s">
-        <v>42</v>
+      <c r="AC71">
+        <v>0.0</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10727,33 +10860,36 @@
       <c r="R72" s="5">
         <v>0</v>
       </c>
-      <c r="S72" s="16"/>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="S72" s="5">
+        <v>0</v>
+      </c>
+      <c r="T72" s="5"/>
       <c r="U72" s="5">
         <v>0.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="Z72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="15"/>
       <c r="AB72" s="15">
         <v>0.0</v>
       </c>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="15" t="s">
-        <v>42</v>
+      <c r="AC72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AD72" s="15"/>
+      <c r="AE72" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10774,15 +10910,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -10802,15 +10937,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -10830,15 +10964,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -10858,15 +10991,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -10886,15 +11018,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -10914,15 +11045,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -10942,15 +11072,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -10970,15 +11099,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
